--- a/images/DOCUMENTATION_Web-Formation/Plan de test qualité en gestion de projet.xlsx
+++ b/images/DOCUMENTATION_Web-Formation/Plan de test qualité en gestion de projet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bts_sio\Web_Formation\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bts_sio\PHP-Portfolio\images\DOCUMENTATION_Web-Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475C791-47F3-43CE-AFBB-53500A81BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0C7AD-B1AC-46EE-A2BC-4D266A59E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53205" yWindow="-12255" windowWidth="14100" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1813,5 +1813,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="152" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>